--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.4997630210271</v>
+        <v>165.3740385352065</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.4001153721097</v>
+        <v>226.2720553114366</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.1871920805064</v>
+        <v>204.6769679274024</v>
       </c>
       <c r="AD2" t="n">
-        <v>116499.763021027</v>
+        <v>165374.0385352065</v>
       </c>
       <c r="AE2" t="n">
-        <v>159400.1153721097</v>
+        <v>226272.0553114366</v>
       </c>
       <c r="AF2" t="n">
         <v>1.967122046199471e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>144187.1920805064</v>
+        <v>204676.9679274024</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.2073012797886</v>
+        <v>151.3613863611814</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.5269798477032</v>
+        <v>207.0993264123612</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.87458036755</v>
+        <v>187.3340573653547</v>
       </c>
       <c r="AD3" t="n">
-        <v>112207.3012797886</v>
+        <v>151361.3863611814</v>
       </c>
       <c r="AE3" t="n">
-        <v>153526.9798477032</v>
+        <v>207099.3264123612</v>
       </c>
       <c r="AF3" t="n">
         <v>2.082613528594776e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.537500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>138874.58036755</v>
+        <v>187334.0573653546</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.79951416598</v>
+        <v>161.4543909587075</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.0197128140356</v>
+        <v>220.9090205746266</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.9841472402586</v>
+        <v>199.8257736988053</v>
       </c>
       <c r="AD2" t="n">
-        <v>122799.51416598</v>
+        <v>161454.3909587075</v>
       </c>
       <c r="AE2" t="n">
-        <v>168019.7128140356</v>
+        <v>220909.0205746266</v>
       </c>
       <c r="AF2" t="n">
         <v>2.139699066424683e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>151984.1472402586</v>
+        <v>199825.7736988053</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.7972069232305</v>
+        <v>161.1316218362088</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.3341147738603</v>
+        <v>220.4673936216553</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.6046834691758</v>
+        <v>199.4262950023981</v>
       </c>
       <c r="AD3" t="n">
-        <v>112797.2069232305</v>
+        <v>161131.6218362088</v>
       </c>
       <c r="AE3" t="n">
-        <v>154334.1147738603</v>
+        <v>220467.3936216553</v>
       </c>
       <c r="AF3" t="n">
         <v>2.150703798303086e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.983333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>139604.6834691758</v>
+        <v>199426.2950023981</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.6328444692488</v>
+        <v>211.3770987789572</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.2579208912194</v>
+        <v>289.2154718486869</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.7596210729038</v>
+        <v>261.6131531319975</v>
       </c>
       <c r="AD2" t="n">
-        <v>164632.8444692488</v>
+        <v>211377.0987789572</v>
       </c>
       <c r="AE2" t="n">
-        <v>225257.9208912194</v>
+        <v>289215.4718486869</v>
       </c>
       <c r="AF2" t="n">
         <v>2.15382498851491e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>203759.6210729038</v>
+        <v>261613.1531319975</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.8058286428711</v>
+        <v>184.1171940587797</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.1837701962928</v>
+        <v>251.9172675884393</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.3192138828828</v>
+        <v>227.8746371379776</v>
       </c>
       <c r="AD2" t="n">
-        <v>136805.8286428711</v>
+        <v>184117.1940587797</v>
       </c>
       <c r="AE2" t="n">
-        <v>187183.7701962928</v>
+        <v>251917.2675884393</v>
       </c>
       <c r="AF2" t="n">
         <v>2.209417118443988e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.395833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>169319.2138828828</v>
+        <v>227874.6371379776</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.3531787282737</v>
+        <v>262.0103958400312</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.0273257436639</v>
+        <v>358.494182671197</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.2562967604996</v>
+        <v>324.2800010268027</v>
       </c>
       <c r="AD2" t="n">
-        <v>197353.1787282737</v>
+        <v>262010.3958400312</v>
       </c>
       <c r="AE2" t="n">
-        <v>270027.3257436639</v>
+        <v>358494.182671197</v>
       </c>
       <c r="AF2" t="n">
         <v>2.038749614712868e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>244256.2967604996</v>
+        <v>324280.0010268026</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.7348354438389</v>
+        <v>151.5705502391454</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.2487753641213</v>
+        <v>207.3855136578504</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.5274887329277</v>
+        <v>187.5929313018007</v>
       </c>
       <c r="AD2" t="n">
-        <v>112734.8354438389</v>
+        <v>151570.5502391454</v>
       </c>
       <c r="AE2" t="n">
-        <v>154248.7753641212</v>
+        <v>207385.5136578504</v>
       </c>
       <c r="AF2" t="n">
         <v>2.123845886865061e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.891666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>139527.4887329277</v>
+        <v>187592.9313018007</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.4959187581585</v>
+        <v>151.3316335534651</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.9218790145133</v>
+        <v>207.0586173082424</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.2317909121242</v>
+        <v>187.2972334809973</v>
       </c>
       <c r="AD3" t="n">
-        <v>112495.9187581585</v>
+        <v>151331.633553465</v>
       </c>
       <c r="AE3" t="n">
-        <v>153921.8790145133</v>
+        <v>207058.6173082424</v>
       </c>
       <c r="AF3" t="n">
         <v>2.13526852168884e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.850000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>139231.7909121242</v>
+        <v>187297.2334809973</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.4318766588789</v>
+        <v>302.9480235639097</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.9188154645678</v>
+        <v>414.5068509636789</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.9588443045472</v>
+        <v>374.9468988717238</v>
       </c>
       <c r="AD2" t="n">
-        <v>229431.8766588789</v>
+        <v>302948.0235639097</v>
       </c>
       <c r="AE2" t="n">
-        <v>313918.8154645679</v>
+        <v>414506.8509636789</v>
       </c>
       <c r="AF2" t="n">
         <v>1.936177201632789e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283958.8443045472</v>
+        <v>374946.8988717237</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.8867876893717</v>
+        <v>162.2747282425242</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.5073684158619</v>
+        <v>222.0314422370708</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.3298230793849</v>
+        <v>200.8410730131149</v>
       </c>
       <c r="AD2" t="n">
-        <v>123886.7876893717</v>
+        <v>162274.7282425242</v>
       </c>
       <c r="AE2" t="n">
-        <v>169507.3684158619</v>
+        <v>222031.4422370708</v>
       </c>
       <c r="AF2" t="n">
         <v>2.190160916008383e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.525</v>
       </c>
       <c r="AH2" t="n">
-        <v>153329.8230793849</v>
+        <v>200841.0730131149</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.7445446640583</v>
+        <v>162.0309999907256</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.3127452333087</v>
+        <v>221.6979624904284</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.1537744602192</v>
+        <v>200.5394201054501</v>
       </c>
       <c r="AD3" t="n">
-        <v>123744.5446640583</v>
+        <v>162030.9999907256</v>
       </c>
       <c r="AE3" t="n">
-        <v>169312.7452333087</v>
+        <v>221697.9624904284</v>
       </c>
       <c r="AF3" t="n">
         <v>2.199527664487905e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.491666666666665</v>
       </c>
       <c r="AH3" t="n">
-        <v>153153.7744602192</v>
+        <v>200539.4201054501</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9258243946142</v>
+        <v>161.462866320629</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.1925360412667</v>
+        <v>220.9206169387141</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1404764612418</v>
+        <v>199.8362633221799</v>
       </c>
       <c r="AD2" t="n">
-        <v>122925.8243946142</v>
+        <v>161462.866320629</v>
       </c>
       <c r="AE2" t="n">
-        <v>168192.5360412667</v>
+        <v>220920.6169387141</v>
       </c>
       <c r="AF2" t="n">
         <v>2.160090347111054e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.158333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152140.4764612418</v>
+        <v>199836.2633221799</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.7590735396222</v>
+        <v>161.2961154656371</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.9643801649383</v>
+        <v>220.6924610623857</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.9340954615313</v>
+        <v>199.6298823224694</v>
       </c>
       <c r="AD3" t="n">
-        <v>122759.0735396222</v>
+        <v>161296.1154656371</v>
       </c>
       <c r="AE3" t="n">
-        <v>167964.3801649383</v>
+        <v>220692.4610623857</v>
       </c>
       <c r="AF3" t="n">
         <v>2.170073922410067e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.120833333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>151934.0954615313</v>
+        <v>199629.8823224694</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.3727965950971</v>
+        <v>152.4241365021814</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.121661956132</v>
+        <v>208.5534280405037</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.3170682537012</v>
+        <v>188.6493815749522</v>
       </c>
       <c r="AD2" t="n">
-        <v>113372.7965950971</v>
+        <v>152424.1365021814</v>
       </c>
       <c r="AE2" t="n">
-        <v>155121.661956132</v>
+        <v>208553.4280405038</v>
       </c>
       <c r="AF2" t="n">
         <v>2.064506942856515e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.762499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>140317.0682537012</v>
+        <v>188649.3815749522</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.2033788512168</v>
+        <v>151.254718758301</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.5216130078859</v>
+        <v>206.9533790922577</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.8697257313924</v>
+        <v>187.2020390526435</v>
       </c>
       <c r="AD3" t="n">
-        <v>112203.3788512168</v>
+        <v>151254.718758301</v>
       </c>
       <c r="AE3" t="n">
-        <v>153521.6130078859</v>
+        <v>206953.3790922577</v>
       </c>
       <c r="AF3" t="n">
         <v>2.101001626451017e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>138869.7257313924</v>
+        <v>187202.0390526435</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.3801772445972</v>
+        <v>173.4259908124973</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.2331310578747</v>
+        <v>237.2890916442842</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.5547410060954</v>
+        <v>214.6425537751541</v>
       </c>
       <c r="AD2" t="n">
-        <v>135380.1772445972</v>
+        <v>173425.9908124973</v>
       </c>
       <c r="AE2" t="n">
-        <v>185233.1310578747</v>
+        <v>237289.0916442842</v>
       </c>
       <c r="AF2" t="n">
         <v>2.207683568142163e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>167554.7410060954</v>
+        <v>214642.5537751541</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.2882538071402</v>
+        <v>198.2256008426692</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.9992632255415</v>
+        <v>271.2210121691264</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.2435440686454</v>
+        <v>245.3360594288658</v>
       </c>
       <c r="AD2" t="n">
-        <v>151288.2538071402</v>
+        <v>198225.6008426692</v>
       </c>
       <c r="AE2" t="n">
-        <v>206999.2632255415</v>
+        <v>271221.0121691264</v>
       </c>
       <c r="AF2" t="n">
         <v>2.182506786941001e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>187243.5440686454</v>
+        <v>245336.0594288658</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.4683101900045</v>
+        <v>235.2367948882132</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.5564595849028</v>
+        <v>321.861360680857</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.1208957228465</v>
+        <v>291.1433641528284</v>
       </c>
       <c r="AD2" t="n">
-        <v>179468.3101900045</v>
+        <v>235236.7948882132</v>
       </c>
       <c r="AE2" t="n">
-        <v>245556.4595849028</v>
+        <v>321861.360680857</v>
       </c>
       <c r="AF2" t="n">
         <v>2.110667550596254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>222120.8957228465</v>
+        <v>291143.3641528285</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.2118330368375</v>
+        <v>373.2381177176144</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.4488773203547</v>
+        <v>510.6808587648755</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.4214756954108</v>
+        <v>461.9421943494419</v>
       </c>
       <c r="AD2" t="n">
-        <v>291211.8330368375</v>
+        <v>373238.1177176144</v>
       </c>
       <c r="AE2" t="n">
-        <v>398448.8773203547</v>
+        <v>510680.8587648755</v>
       </c>
       <c r="AF2" t="n">
         <v>1.766976150004362e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>360421.4756954109</v>
+        <v>461942.1943494419</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4948776263132</v>
+        <v>161.909298587477</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.9711397777337</v>
+        <v>221.5314452614168</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.8447713498778</v>
+        <v>200.388795047067</v>
       </c>
       <c r="AD2" t="n">
-        <v>123494.8776263132</v>
+        <v>161909.298587477</v>
       </c>
       <c r="AE2" t="n">
-        <v>168971.1397777337</v>
+        <v>221531.4452614168</v>
       </c>
       <c r="AF2" t="n">
         <v>2.171244729026969e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.345833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>152844.7713498778</v>
+        <v>200388.795047067</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.3367372247854</v>
+        <v>161.7511581859492</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7547651037014</v>
+        <v>221.3150705873845</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.6490471710513</v>
+        <v>200.1930708682405</v>
       </c>
       <c r="AD3" t="n">
-        <v>123336.7372247854</v>
+        <v>161751.1581859492</v>
       </c>
       <c r="AE3" t="n">
-        <v>168754.7651037014</v>
+        <v>221315.0705873845</v>
       </c>
       <c r="AF3" t="n">
         <v>2.181031576474353e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.308333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>152649.0471710513</v>
+        <v>200193.0708682405</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.7216861533188</v>
+        <v>151.6670013251579</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.2307839247259</v>
+        <v>207.5174822888543</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.511214371257</v>
+        <v>187.7123050318808</v>
       </c>
       <c r="AD2" t="n">
-        <v>112721.6861533188</v>
+        <v>151667.0013251579</v>
       </c>
       <c r="AE2" t="n">
-        <v>154230.7839247259</v>
+        <v>207517.4822888543</v>
       </c>
       <c r="AF2" t="n">
         <v>2.102322758988042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>139511.2143712571</v>
+        <v>187712.3050318808</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.4137590916777</v>
+        <v>151.3590742635169</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.8094645342056</v>
+        <v>207.096162898334</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.1301051120424</v>
+        <v>187.3311957726662</v>
       </c>
       <c r="AD3" t="n">
-        <v>112413.7590916777</v>
+        <v>151359.0742635169</v>
       </c>
       <c r="AE3" t="n">
-        <v>153809.4645342056</v>
+        <v>207096.162898334</v>
       </c>
       <c r="AF3" t="n">
         <v>2.114546251258326e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.745833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>139130.1051120424</v>
+        <v>187331.1957726662</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.4778245557143</v>
+        <v>535.8590301452535</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.2656244437928</v>
+        <v>733.1859654766888</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.7946595846191</v>
+        <v>663.2117259645585</v>
       </c>
       <c r="AD2" t="n">
-        <v>409477.8245557143</v>
+        <v>535859.0301452535</v>
       </c>
       <c r="AE2" t="n">
-        <v>560265.6244437929</v>
+        <v>733185.9654766888</v>
       </c>
       <c r="AF2" t="n">
         <v>1.490883476060889e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>506794.6595846191</v>
+        <v>663211.7259645584</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.0749044133644</v>
+        <v>186.2904437159365</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.2884197700382</v>
+        <v>254.890803646368</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.127560058714</v>
+        <v>230.5643830879226</v>
       </c>
       <c r="AD2" t="n">
-        <v>139074.9044133644</v>
+        <v>186290.4437159365</v>
       </c>
       <c r="AE2" t="n">
-        <v>190288.4197700382</v>
+        <v>254890.803646368</v>
       </c>
       <c r="AF2" t="n">
         <v>2.196382904708224e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.862500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>172127.5600587139</v>
+        <v>230564.3830879226</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.6863272397851</v>
+        <v>172.4269015666146</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.6013337019324</v>
+        <v>235.9220936613614</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.3193818539431</v>
+        <v>213.4060201611274</v>
       </c>
       <c r="AD2" t="n">
-        <v>124686.3272397851</v>
+        <v>172426.9015666147</v>
       </c>
       <c r="AE2" t="n">
-        <v>170601.3337019325</v>
+        <v>235922.0936613614</v>
       </c>
       <c r="AF2" t="n">
         <v>2.199539607064881e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.766666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>154319.3818539431</v>
+        <v>213406.0201611274</v>
       </c>
     </row>
   </sheetData>
